--- a/src/test/resources/unittesting/artifact/data/unitTest_numberCommand.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_numberCommand.data.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/sentry-core/src/test/resources/showcase/artifact/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB000AE-DDE2-2747-BF84-1D626D23FF11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="13060" windowWidth="28700" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
+    <workbookView xWindow="51200" yWindow="-4360" windowWidth="38400" windowHeight="10580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#default" r:id="rId1" sheetId="2"/>
+    <sheet name="#default" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -45,60 +46,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
-  <si>
-    <t>sentry.scope.executionMode</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>sentry.scope.fallbackToPrevious</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>sentry.scope.iteration</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>sentry.scope.mailTo</t>
-  </si>
-  <si>
-    <t>mliu@ep.com</t>
-  </si>
-  <si>
-    <t>sentry.delayBetweenStepsMs</t>
-  </si>
-  <si>
-    <t>sentry.failFast</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>sentry.pollWaitMs</t>
-  </si>
-  <si>
-    <t>sentry.textDelim</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>sentry.verbose</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>nexial.scope.executionMode</t>
   </si>
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
@@ -106,31 +59,12 @@
   <si>
     <t>nexial.scope.iteration</t>
   </si>
-  <si>
-    <t>nexial.scope.mailTo</t>
-  </si>
-  <si>
-    <t>nexial.delayBetweenStepsMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,25 +76,18 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -202,39 +129,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -301,7 +224,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -320,7 +243,7 @@
       <sheetName val="#system"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -331,10 +254,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -498,21 +421,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -529,7 +452,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -583,139 +506,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAB11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AAA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="31.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="21.1640625" collapsed="true"/>
-    <col min="3" max="27" customWidth="true" style="3" width="21.1640625" collapsed="true"/>
-    <col min="28" max="16384" style="3" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.1640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
+      <c r="HA1" s="4"/>
+      <c r="AAA1" s="4"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="HA2" s="5"/>
-      <c r="AAA2" s="5"/>
+      <c r="HA2" s="4"/>
+      <c r="AAA2" s="4"/>
     </row>
     <row r="3" spans="1:703">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="HA3" s="5"/>
-      <c r="AAA3" s="5"/>
+      <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="HA4" s="5"/>
-      <c r="AAA4" s="5"/>
-    </row>
-    <row r="5" spans="1:703">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="HA5" s="6"/>
-      <c r="AAA5" s="7"/>
-    </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="HA6" s="6"/>
-      <c r="AAA6" s="7"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="HA7" s="6"/>
-      <c r="AAA7" s="7"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA8" s="6"/>
-      <c r="AAA8" s="7"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="HA9" s="6"/>
-      <c r="AAA9" s="7"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="6"/>
-      <c r="AAA10" s="7"/>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="HA11" s="6"/>
-      <c r="AAA11" s="7"/>
+      <c r="AAA4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection deleteColumns="0" deleteRows="0" insertColumns="0" insertRows="0" sheet="1"/>
+  <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule dxfId="4" operator="beginsWith" priority="1" stopIfTrue="1" text="sentry.scope." type="beginsWith">
+    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="3" operator="beginsWith" priority="2" stopIfTrue="1" text="sentry." type="beginsWith">
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" stopIfTrue="1" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule dxfId="1" priority="4" stopIfTrue="1" type="expression">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="5" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/data/unitTest_numberCommand.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_numberCommand.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB000AE-DDE2-2747-BF84-1D626D23FF11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34CE61-418C-4F7D-B564-C113D54914E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="-4360" windowWidth="38400" windowHeight="10580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>true</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>nexial.scope.iteration</t>
+  </si>
+  <si>
+    <t>nexial.delayBetweenStepsMs</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -510,15 +516,15 @@
   <dimension ref="A1:AAA4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.1640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" width="31.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="27" width="21.125" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.875" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:703">
@@ -542,6 +548,12 @@
       <c r="AAA2" s="4"/>
     </row>
     <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="HA3" s="5"/>
       <c r="AAA3" s="6"/>
     </row>
